--- a/docs/performance.xlsx
+++ b/docs/performance.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liubojie/git/reactnative/react-native-quickjs/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA7FEC7-4249-C744-A076-64A1A1C18763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C480DA3-E152-9A48-AFC6-684BEE71691F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="3320" windowWidth="28240" windowHeight="17440" xr2:uid="{FCAFB996-2960-0F45-AF98-7FDE9C9D391B}"/>
+    <workbookView xWindow="1540" yWindow="2860" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{FCAFB996-2960-0F45-AF98-7FDE9C9D391B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Speed&amp;Memory" sheetId="1" r:id="rId1"/>
+    <sheet name="Size" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$E$38:$E$41</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$F$37</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$F$38:$F$41</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Summury</t>
   </si>
@@ -98,6 +94,25 @@
   </si>
   <si>
     <t>JSC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickJS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>libquickjsexecutor.so</t>
+  </si>
+  <si>
+    <t>libhermes.so+libhermes_executor.so</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>libjsc.so+libjscexecutor.so</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Arm64 SO Size(Byte)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +198,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -308,7 +326,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$7</c:f>
+              <c:f>'Speed&amp;Memory'!$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -386,7 +404,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$6:$G$6</c:f>
+              <c:f>'Speed&amp;Memory'!$F$6:$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -400,7 +418,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$7:$G$7</c:f>
+              <c:f>'Speed&amp;Memory'!$F$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -424,7 +442,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$8</c:f>
+              <c:f>'Speed&amp;Memory'!$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -502,7 +520,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$6:$G$6</c:f>
+              <c:f>'Speed&amp;Memory'!$F$6:$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -516,7 +534,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$G$8</c:f>
+              <c:f>'Speed&amp;Memory'!$F$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -540,7 +558,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$9</c:f>
+              <c:f>'Speed&amp;Memory'!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -618,7 +636,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$6:$G$6</c:f>
+              <c:f>'Speed&amp;Memory'!$F$6:$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -632,7 +650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$G$9</c:f>
+              <c:f>'Speed&amp;Memory'!$F$9:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -869,7 +887,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$12</c:f>
+              <c:f>'Speed&amp;Memory'!$F$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -947,7 +965,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$13:$E$15</c:f>
+              <c:f>'Speed&amp;Memory'!$E$13:$E$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -964,7 +982,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$13:$F$15</c:f>
+              <c:f>'Speed&amp;Memory'!$F$13:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1247,7 +1265,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$32</c:f>
+              <c:f>'Speed&amp;Memory'!$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1325,7 +1343,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$31:$G$31</c:f>
+              <c:f>'Speed&amp;Memory'!$F$31:$G$31</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1339,7 +1357,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$32:$G$32</c:f>
+              <c:f>'Speed&amp;Memory'!$F$32:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1363,7 +1381,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$33</c:f>
+              <c:f>'Speed&amp;Memory'!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1441,7 +1459,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$31:$G$31</c:f>
+              <c:f>'Speed&amp;Memory'!$F$31:$G$31</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1455,7 +1473,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$33:$G$33</c:f>
+              <c:f>'Speed&amp;Memory'!$F$33:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1479,7 +1497,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$34</c:f>
+              <c:f>'Speed&amp;Memory'!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1557,7 +1575,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$31:$G$31</c:f>
+              <c:f>'Speed&amp;Memory'!$F$31:$G$31</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1571,7 +1589,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$34:$G$34</c:f>
+              <c:f>'Speed&amp;Memory'!$F$34:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1595,7 +1613,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$35</c:f>
+              <c:f>'Speed&amp;Memory'!$E$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1673,7 +1691,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$31:$G$31</c:f>
+              <c:f>'Speed&amp;Memory'!$F$31:$G$31</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1687,7 +1705,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$35:$G$35</c:f>
+              <c:f>'Speed&amp;Memory'!$F$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1917,7 +1935,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$37</c:f>
+              <c:f>'Speed&amp;Memory'!$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1938,7 +1956,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$38:$E$41</c:f>
+              <c:f>'Speed&amp;Memory'!$E$38:$E$41</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1958,7 +1976,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$38:$F$41</c:f>
+              <c:f>'Speed&amp;Memory'!$F$38:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2111,6 +2129,334 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Size!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android Arm64 SO Size(Byte)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Size!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>QuickJS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hermes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>JSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Size!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1312096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2171064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6044712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C708-EE47-9CBF-B1D911EE6E17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="572224240"/>
+        <c:axId val="572148944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="572224240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572148944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="572148944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="572224240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2308,6 +2654,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3818,6 +4204,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4461,6 +5350,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3E2D76-6803-4C74-C5DB-D5641D0818F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4768,18 +5698,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12C5D5E-4861-ED4A-977A-37A65B25633E}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="27">
+    <row r="1" spans="1:7" ht="26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27">
+    <row r="3" spans="1:7" ht="26">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5183,7 +6113,7 @@
         <v>85306</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="27">
+    <row r="47" spans="1:7" ht="26">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -5478,6 +6408,61 @@
     <row r="95" spans="1:2" ht="20">
       <c r="A95" s="4">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F388C2F-0070-0044-B19D-185B653E61F5}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1312096</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2171064</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6044712</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
